--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Liph-Lpar2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Liph-Lpar2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,13 +82,13 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Liph</t>
+  </si>
+  <si>
+    <t>Lpar2</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Liph</t>
-  </si>
-  <si>
-    <t>Lpar2</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,40 +543,40 @@
         <v>0.137318</v>
       </c>
       <c r="I2">
-        <v>0.5662271044145905</v>
+        <v>0.6974138631561839</v>
       </c>
       <c r="J2">
-        <v>0.5662271044145906</v>
+        <v>0.697413863156184</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>2.303992</v>
+        <v>0.09816633333333334</v>
       </c>
       <c r="N2">
-        <v>6.911976</v>
+        <v>0.294499</v>
       </c>
       <c r="O2">
-        <v>0.4588260597113209</v>
+        <v>0.03562317544007775</v>
       </c>
       <c r="P2">
-        <v>0.458826059711321</v>
+        <v>0.03562317544007775</v>
       </c>
       <c r="Q2">
-        <v>0.1054598578186667</v>
+        <v>0.004493334853555556</v>
       </c>
       <c r="R2">
-        <v>0.949138720368</v>
+        <v>0.040440013682</v>
       </c>
       <c r="S2">
-        <v>0.2597997512202972</v>
+        <v>0.02484409640155511</v>
       </c>
       <c r="T2">
-        <v>0.2597997512202973</v>
+        <v>0.02484409640155512</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,10 +605,10 @@
         <v>0.137318</v>
       </c>
       <c r="I3">
-        <v>0.5662271044145905</v>
+        <v>0.6974138631561839</v>
       </c>
       <c r="J3">
-        <v>0.5662271044145906</v>
+        <v>0.697413863156184</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,10 +623,10 @@
         <v>3.783306</v>
       </c>
       <c r="O3">
-        <v>0.2511408292884985</v>
+        <v>0.4576360985317395</v>
       </c>
       <c r="P3">
-        <v>0.2511408292884985</v>
+        <v>0.4576360985317396</v>
       </c>
       <c r="Q3">
         <v>0.05772400147866666</v>
@@ -635,10 +635,10 @@
         <v>0.519516013308</v>
       </c>
       <c r="S3">
-        <v>0.1422027445683055</v>
+        <v>0.3191617593967445</v>
       </c>
       <c r="T3">
-        <v>0.1422027445683055</v>
+        <v>0.3191617593967446</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -667,40 +667,40 @@
         <v>0.137318</v>
       </c>
       <c r="I4">
-        <v>0.5662271044145905</v>
+        <v>0.6974138631561839</v>
       </c>
       <c r="J4">
-        <v>0.5662271044145906</v>
+        <v>0.697413863156184</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.4416506666666667</v>
+        <v>0.299102</v>
       </c>
       <c r="N4">
-        <v>1.324952</v>
+        <v>0.8973059999999999</v>
       </c>
       <c r="O4">
-        <v>0.08795205675868002</v>
+        <v>0.1085398899875191</v>
       </c>
       <c r="P4">
-        <v>0.08795205675868004</v>
+        <v>0.1085398899875192</v>
       </c>
       <c r="Q4">
-        <v>0.02021552874844445</v>
+        <v>0.01369069614533333</v>
       </c>
       <c r="R4">
-        <v>0.181939758736</v>
+        <v>0.123216265308</v>
       </c>
       <c r="S4">
-        <v>0.0498008384257751</v>
+        <v>0.07569722398274292</v>
       </c>
       <c r="T4">
-        <v>0.04980083842577512</v>
+        <v>0.07569722398274295</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,10 +708,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -729,40 +729,40 @@
         <v>0.137318</v>
       </c>
       <c r="I5">
-        <v>0.5662271044145905</v>
+        <v>0.6974138631561839</v>
       </c>
       <c r="J5">
-        <v>0.5662271044145906</v>
+        <v>0.697413863156184</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>1.014748666666667</v>
+        <v>1.097317</v>
       </c>
       <c r="N5">
-        <v>3.044246</v>
+        <v>3.291951</v>
       </c>
       <c r="O5">
-        <v>0.2020810542415005</v>
+        <v>0.3982008360406636</v>
       </c>
       <c r="P5">
-        <v>0.2020810542415006</v>
+        <v>0.3982008360406636</v>
       </c>
       <c r="Q5">
-        <v>0.04644775246977777</v>
+        <v>0.05022712526866667</v>
       </c>
       <c r="R5">
-        <v>0.418029772228</v>
+        <v>0.452044127418</v>
       </c>
       <c r="S5">
-        <v>0.1144237702002126</v>
+        <v>0.2777107833751414</v>
       </c>
       <c r="T5">
-        <v>0.1144237702002127</v>
+        <v>0.2777107833751414</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,40 +791,40 @@
         <v>0.059578</v>
       </c>
       <c r="I6">
-        <v>0.2456682913151406</v>
+        <v>0.302586136843816</v>
       </c>
       <c r="J6">
-        <v>0.2456682913151406</v>
+        <v>0.302586136843816</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>2.303992</v>
+        <v>0.09816633333333334</v>
       </c>
       <c r="N6">
-        <v>6.911976</v>
+        <v>0.294499</v>
       </c>
       <c r="O6">
-        <v>0.4588260597113209</v>
+        <v>0.03562317544007775</v>
       </c>
       <c r="P6">
-        <v>0.458826059711321</v>
+        <v>0.03562317544007775</v>
       </c>
       <c r="Q6">
-        <v>0.04575574512533333</v>
+        <v>0.001949517935777778</v>
       </c>
       <c r="R6">
-        <v>0.411801706128</v>
+        <v>0.017545661422</v>
       </c>
       <c r="S6">
-        <v>0.1127190141001389</v>
+        <v>0.01077907903852263</v>
       </c>
       <c r="T6">
-        <v>0.1127190141001389</v>
+        <v>0.01077907903852263</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>0.059578</v>
       </c>
       <c r="I7">
-        <v>0.2456682913151406</v>
+        <v>0.302586136843816</v>
       </c>
       <c r="J7">
-        <v>0.2456682913151406</v>
+        <v>0.302586136843816</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>3.783306</v>
       </c>
       <c r="O7">
-        <v>0.2511408292884985</v>
+        <v>0.4576360985317395</v>
       </c>
       <c r="P7">
-        <v>0.2511408292884985</v>
+        <v>0.4576360985317396</v>
       </c>
       <c r="Q7">
         <v>0.02504464498533333</v>
@@ -883,10 +883,10 @@
         <v>0.225401804868</v>
       </c>
       <c r="S7">
-        <v>0.06169733841077283</v>
+        <v>0.138474339134995</v>
       </c>
       <c r="T7">
-        <v>0.06169733841077284</v>
+        <v>0.138474339134995</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,13 +894,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -915,40 +915,40 @@
         <v>0.059578</v>
       </c>
       <c r="I8">
-        <v>0.2456682913151406</v>
+        <v>0.302586136843816</v>
       </c>
       <c r="J8">
-        <v>0.2456682913151406</v>
+        <v>0.302586136843816</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.4416506666666667</v>
+        <v>0.299102</v>
       </c>
       <c r="N8">
-        <v>1.324952</v>
+        <v>0.8973059999999999</v>
       </c>
       <c r="O8">
-        <v>0.08795205675868002</v>
+        <v>0.1085398899875191</v>
       </c>
       <c r="P8">
-        <v>0.08795205675868004</v>
+        <v>0.1085398899875192</v>
       </c>
       <c r="Q8">
-        <v>0.008770887806222222</v>
+        <v>0.005939966318666666</v>
       </c>
       <c r="R8">
-        <v>0.07893799025600001</v>
+        <v>0.05345969686799999</v>
       </c>
       <c r="S8">
-        <v>0.02160703150155718</v>
+        <v>0.0328426660047762</v>
       </c>
       <c r="T8">
-        <v>0.02160703150155719</v>
+        <v>0.03284266600477621</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,10 +956,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
@@ -977,288 +977,40 @@
         <v>0.059578</v>
       </c>
       <c r="I9">
-        <v>0.2456682913151406</v>
+        <v>0.302586136843816</v>
       </c>
       <c r="J9">
-        <v>0.2456682913151406</v>
+        <v>0.302586136843816</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>1.014748666666667</v>
+        <v>1.097317</v>
       </c>
       <c r="N9">
-        <v>3.044246</v>
+        <v>3.291951</v>
       </c>
       <c r="O9">
-        <v>0.2020810542415005</v>
+        <v>0.3982008360406636</v>
       </c>
       <c r="P9">
-        <v>0.2020810542415006</v>
+        <v>0.3982008360406636</v>
       </c>
       <c r="Q9">
-        <v>0.02015223202088889</v>
+        <v>0.02179198407533333</v>
       </c>
       <c r="R9">
-        <v>0.181370088188</v>
+        <v>0.196127856678</v>
       </c>
       <c r="S9">
-        <v>0.04964490730267167</v>
+        <v>0.1204900526655222</v>
       </c>
       <c r="T9">
-        <v>0.04964490730267168</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.015206</v>
-      </c>
-      <c r="H10">
-        <v>0.045618</v>
-      </c>
-      <c r="I10">
-        <v>0.1881046042702689</v>
-      </c>
-      <c r="J10">
-        <v>0.188104604270269</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M10">
-        <v>2.303992</v>
-      </c>
-      <c r="N10">
-        <v>6.911976</v>
-      </c>
-      <c r="O10">
-        <v>0.4588260597113209</v>
-      </c>
-      <c r="P10">
-        <v>0.458826059711321</v>
-      </c>
-      <c r="Q10">
-        <v>0.035034502352</v>
-      </c>
-      <c r="R10">
-        <v>0.315310521168</v>
-      </c>
-      <c r="S10">
-        <v>0.0863072943908848</v>
-      </c>
-      <c r="T10">
-        <v>0.08630729439088482</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.015206</v>
-      </c>
-      <c r="H11">
-        <v>0.045618</v>
-      </c>
-      <c r="I11">
-        <v>0.1881046042702689</v>
-      </c>
-      <c r="J11">
-        <v>0.188104604270269</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>1.261102</v>
-      </c>
-      <c r="N11">
-        <v>3.783306</v>
-      </c>
-      <c r="O11">
-        <v>0.2511408292884985</v>
-      </c>
-      <c r="P11">
-        <v>0.2511408292884985</v>
-      </c>
-      <c r="Q11">
-        <v>0.019176317012</v>
-      </c>
-      <c r="R11">
-        <v>0.172586853108</v>
-      </c>
-      <c r="S11">
-        <v>0.04724074630942016</v>
-      </c>
-      <c r="T11">
-        <v>0.04724074630942018</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.015206</v>
-      </c>
-      <c r="H12">
-        <v>0.045618</v>
-      </c>
-      <c r="I12">
-        <v>0.1881046042702689</v>
-      </c>
-      <c r="J12">
-        <v>0.188104604270269</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>0.4416506666666667</v>
-      </c>
-      <c r="N12">
-        <v>1.324952</v>
-      </c>
-      <c r="O12">
-        <v>0.08795205675868002</v>
-      </c>
-      <c r="P12">
-        <v>0.08795205675868004</v>
-      </c>
-      <c r="Q12">
-        <v>0.006715740037333333</v>
-      </c>
-      <c r="R12">
-        <v>0.06044166033600001</v>
-      </c>
-      <c r="S12">
-        <v>0.01654418683134774</v>
-      </c>
-      <c r="T12">
-        <v>0.01654418683134774</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.015206</v>
-      </c>
-      <c r="H13">
-        <v>0.045618</v>
-      </c>
-      <c r="I13">
-        <v>0.1881046042702689</v>
-      </c>
-      <c r="J13">
-        <v>0.188104604270269</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1.014748666666667</v>
-      </c>
-      <c r="N13">
-        <v>3.044246</v>
-      </c>
-      <c r="O13">
-        <v>0.2020810542415005</v>
-      </c>
-      <c r="P13">
-        <v>0.2020810542415006</v>
-      </c>
-      <c r="Q13">
-        <v>0.01543026822533333</v>
-      </c>
-      <c r="R13">
-        <v>0.138872414028</v>
-      </c>
-      <c r="S13">
-        <v>0.0380123767386162</v>
-      </c>
-      <c r="T13">
-        <v>0.03801237673861622</v>
+        <v>0.1204900526655222</v>
       </c>
     </row>
   </sheetData>
